--- a/Week 7/LSTM and RNN Exercise.xlsx
+++ b/Week 7/LSTM and RNN Exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchen/Github/usc/dso-560-nlp-and-text-analytics/week7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchen/Github/dso-560-nlp-text-analytics-SPRING-2021/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DBECC-AB9D-974D-8CCD-834ABB1F24A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE38454C-F068-2E4F-9173-B45F18A072E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="31140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RNN" sheetId="1" r:id="rId1"/>
@@ -663,13 +663,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,7 +1830,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2100,6 +2100,15 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E19" s="38"/>
@@ -2108,30 +2117,21 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="L19" s="43"/>
       <c r="N19" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="O19" s="43"/>
       <c r="R19" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="44"/>
-      <c r="N20" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="44"/>
-      <c r="R20" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="44"/>
     </row>
     <row r="21" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2142,8 +2142,17 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="L22" s="43"/>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="O22" s="43"/>
+      <c r="R22" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="S22" s="43"/>
     </row>
     <row r="23" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2153,24 +2162,15 @@
       <c r="G23" s="17">
         <v>2</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="L23" s="44"/>
-      <c r="N23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="O23" s="44"/>
-      <c r="R23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="S23" s="44"/>
     </row>
     <row r="25" spans="5:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="49"/>
       <c r="H25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2379,106 +2379,106 @@
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
